--- a/apscheduler_yqt/config.xlsx
+++ b/apscheduler_yqt/config.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="383"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="383"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="info" sheetId="1" r:id="rId1"/>
+    <sheet name="time" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">info!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>舆情通用户名</t>
   </si>
@@ -42,22 +41,37 @@
     <t>表格名称</t>
   </si>
   <si>
-    <t>zdyousu</t>
-  </si>
-  <si>
-    <t>YQT654321abc</t>
+    <t>关键词</t>
+  </si>
+  <si>
+    <t>lsyousu</t>
+  </si>
+  <si>
+    <t>33221100aA</t>
   </si>
   <si>
     <t>huoxingren</t>
   </si>
   <si>
-    <t>33221100aA</t>
-  </si>
-  <si>
     <t>优速</t>
   </si>
   <si>
     <t>流通贸易</t>
+  </si>
+  <si>
+    <t>百世快递</t>
+  </si>
+  <si>
+    <t>lszuche</t>
+  </si>
+  <si>
+    <t>租车</t>
+  </si>
+  <si>
+    <t>汽车业</t>
+  </si>
+  <si>
+    <t>一嗨租车</t>
   </si>
   <si>
     <t>开始时间</t>
@@ -74,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -96,38 +110,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,61 +193,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,15 +216,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -226,14 +240,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,19 +262,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,19 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,67 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,67 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,32 +453,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,15 +482,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,6 +518,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -547,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,13 +1061,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1064,7 +1078,7 @@
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,19 +1100,22 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2">
         <v>913444</v>
@@ -1108,17 +1125,46 @@
       </c>
       <c r="G2" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>913444</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1163,31 +1209,42 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="32.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44197.375</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44197.375</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/apscheduler_yqt/config.xlsx
+++ b/apscheduler_yqt/config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>舆情通用户名</t>
   </si>
@@ -59,7 +59,7 @@
     <t>流通贸易</t>
   </si>
   <si>
-    <t>百世快递</t>
+    <t>壹米滴答|优速快递|优速物流|杨兴运|百世快运|安能物流|德邦快递|中通快运|顺心捷达|韵达</t>
   </si>
   <si>
     <t>lszuche</t>
@@ -71,7 +71,7 @@
     <t>汽车业</t>
   </si>
   <si>
-    <t>一嗨租车</t>
+    <t>一嗨租车|神州租车</t>
   </si>
   <si>
     <t>开始时间</t>
@@ -110,14 +110,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,8 +168,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,16 +178,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,93 +215,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,13 +262,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,169 +442,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +453,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -467,36 +502,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,11 +539,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +573,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,13 +1061,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1154,49 +1154,6 @@
       </c>
       <c r="H3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>44286.375</v>
-      </c>
-      <c r="B7" s="2">
-        <v>44287.375</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/apscheduler_yqt/config.xlsx
+++ b/apscheduler_yqt/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="383"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="383"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>舆情通用户名</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>一嗨租车|神州租车</t>
+  </si>
+  <si>
+    <t>lsqiche</t>
   </si>
   <si>
     <t>开始时间</t>
@@ -88,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -109,6 +112,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -123,8 +156,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,21 +171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -160,9 +179,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,14 +191,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,7 +227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,7 +235,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,13 +251,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,73 +265,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,97 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +456,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,11 +491,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,24 +533,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +576,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,13 +1064,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="24.125" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1154,6 +1157,26 @@
       </c>
       <c r="H3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>913444</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1169,7 +1192,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1181,21 +1204,21 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>44197.375</v>
+        <v>44307.3333333333</v>
       </c>
       <c r="B2" s="2">
-        <v>44197.375</v>
+        <v>44307.3986111111</v>
       </c>
       <c r="C2">
         <v>2</v>
